--- a/biology/Zoologie/Chapalichthys_pardalis/Chapalichthys_pardalis.xlsx
+++ b/biology/Zoologie/Chapalichthys_pardalis/Chapalichthys_pardalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapalichthys pardalis est une espèce de poisson de la famille des Goodeidae qui se rencontre au Mexique.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chapalichthys pardalis se rencontre dans la région de Michoacan au Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chapalichthys pardalis se rencontre dans la région de Michoacan au Mexique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chapalichthys pardalis atteint jusqu'à 7 cm[1]. La femelle est un peu plus grande que le mâle. Ce poisson ressemble à Ameca splendens, qui est une espèce apparentée.  Le mâle et la femelle ont une coloration semblable: brun-beige tacheté de noir. La nageoire caudale est bordée de jaune-orangé.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chapalichthys pardalis atteint jusqu'à 7 cm. La femelle est un peu plus grande que le mâle. Ce poisson ressemble à Ameca splendens, qui est une espèce apparentée.  Le mâle et la femelle ont une coloration semblable: brun-beige tacheté de noir. La nageoire caudale est bordée de jaune-orangé.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Paramètres de l'eau</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson préfère une eau dure et alcaline, à une température variant entre 18 et 22 °C. Le pH de l'eau doit se situer entre 7,2 et 8,0[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson préfère une eau dure et alcaline, à une température variant entre 18 et 22 °C. Le pH de l'eau doit se situer entre 7,2 et 8,0.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapalichthys pardalis est un poisson omnivore.
 </t>
@@ -635,7 +655,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapalichthys pardalis est un poisson paisible mais il peut se montrer agressif envers les poissons plus petits que lui.
 </t>
